--- a/影视工作/南宁项目财务/锦绣南宁支出钱.xlsx
+++ b/影视工作/南宁项目财务/锦绣南宁支出钱.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="供应商支付" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>金楠</t>
   </si>
@@ -474,11 +474,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P1" sqref="P1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -488,7 +488,7 @@
     <col min="14" max="14" width="12.875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:15">
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
@@ -528,14 +528,8 @@
       <c r="O1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -549,7 +543,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:15">
       <c r="B3">
         <v>180314</v>
       </c>
@@ -560,7 +554,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:15">
       <c r="B4">
         <v>180331</v>
       </c>
@@ -568,7 +562,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:15">
       <c r="B5">
         <v>180406</v>
       </c>
@@ -576,7 +570,7 @@
         <v>1087.1500000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:15">
       <c r="B6">
         <v>180419</v>
       </c>
@@ -584,7 +578,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:15">
       <c r="B7">
         <v>180413</v>
       </c>
@@ -592,7 +586,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:15">
       <c r="B8">
         <v>180414</v>
       </c>
@@ -600,7 +594,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:15">
       <c r="B9">
         <v>180417</v>
       </c>
@@ -611,7 +605,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:15">
       <c r="B10">
         <v>180423</v>
       </c>
@@ -622,7 +616,7 @@
         <v>-362.5</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:15">
       <c r="B11">
         <v>180424</v>
       </c>
@@ -630,18 +624,15 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:15">
       <c r="B12">
         <v>180425</v>
       </c>
       <c r="D12">
         <v>1000</v>
       </c>
-      <c r="P12">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+    </row>
+    <row r="13" spans="1:15">
       <c r="B13">
         <v>180430</v>
       </c>
@@ -649,7 +640,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:15">
       <c r="B14">
         <v>180502</v>
       </c>
@@ -657,7 +648,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:15">
       <c r="B15">
         <v>180504</v>
       </c>
@@ -671,7 +662,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:15">
       <c r="B16">
         <v>180506</v>
       </c>
@@ -685,7 +676,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:15">
       <c r="B17">
         <v>180508</v>
       </c>
@@ -693,7 +684,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:15">
       <c r="B18">
         <v>180509</v>
       </c>
@@ -701,7 +692,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:15">
       <c r="B19">
         <v>180511</v>
       </c>
@@ -709,7 +700,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:15">
       <c r="B20">
         <v>180512</v>
       </c>
@@ -717,7 +708,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:15">
       <c r="B21">
         <v>180515</v>
       </c>
@@ -727,11 +718,8 @@
       <c r="J21">
         <v>1000</v>
       </c>
-      <c r="Q21">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+    </row>
+    <row r="22" spans="1:15">
       <c r="B22">
         <v>180518</v>
       </c>
@@ -742,7 +730,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:15">
       <c r="B23">
         <v>180520</v>
       </c>
@@ -750,7 +738,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:15">
       <c r="B24">
         <v>180524</v>
       </c>
@@ -758,7 +746,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:15">
       <c r="B25">
         <v>180524</v>
       </c>
@@ -766,7 +754,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:15">
       <c r="B26">
         <v>180604</v>
       </c>
@@ -774,7 +762,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
@@ -785,7 +773,7 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:15">
       <c r="A30" s="1"/>
       <c r="B30">
         <v>180512</v>
@@ -794,7 +782,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:15">
       <c r="A31" s="1"/>
       <c r="B31">
         <v>180513</v>
@@ -806,7 +794,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:15">
       <c r="A32" s="1"/>
       <c r="B32">
         <v>180516</v>
@@ -815,7 +803,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:15">
       <c r="A33" s="1"/>
       <c r="B33">
         <v>180521</v>
@@ -824,7 +812,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:15">
       <c r="A34" s="1"/>
       <c r="B34">
         <v>180527</v>
@@ -836,7 +824,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:15">
       <c r="A35" s="1"/>
       <c r="B35">
         <v>180529</v>
@@ -845,88 +833,77 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:15">
       <c r="A36" s="1"/>
       <c r="B36">
         <v>180601</v>
       </c>
-      <c r="P36">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B40">
-        <f>SUM(C40:Q40)</f>
-        <v>43273.15</v>
+        <f>SUM(C40:O40)</f>
+        <v>38153.15</v>
       </c>
       <c r="C40">
         <f>SUM(C2:C36)</f>
         <v>11484</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:Q40" si="0">SUM(D2:D36)</f>
+        <f>SUM(D2:D36)</f>
         <v>11232.65</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
+        <f>SUM(E2:E36)</f>
         <v>344</v>
       </c>
       <c r="F40">
-        <f t="shared" si="0"/>
+        <f>SUM(F2:F36)</f>
         <v>3000</v>
       </c>
       <c r="G40">
-        <f t="shared" si="0"/>
+        <f>SUM(G2:G36)</f>
         <v>1113.5</v>
       </c>
       <c r="H40">
-        <f t="shared" si="0"/>
+        <f>SUM(H2:H36)</f>
         <v>1206</v>
       </c>
       <c r="I40">
-        <f t="shared" si="0"/>
+        <f>SUM(I2:I36)</f>
         <v>80</v>
       </c>
       <c r="J40">
-        <f t="shared" si="0"/>
+        <f>SUM(J2:J36)</f>
         <v>2361</v>
       </c>
       <c r="K40">
-        <f t="shared" si="0"/>
+        <f>SUM(K2:K36)</f>
         <v>104</v>
       </c>
       <c r="L40">
-        <f t="shared" si="0"/>
+        <f>SUM(L2:L36)</f>
         <v>4734</v>
       </c>
       <c r="M40">
-        <f t="shared" si="0"/>
+        <f>SUM(M2:M36)</f>
         <v>604</v>
       </c>
       <c r="N40" s="5">
-        <f t="shared" si="0"/>
+        <f>SUM(N2:N36)</f>
         <v>1205</v>
       </c>
       <c r="O40">
-        <f t="shared" si="0"/>
+        <f>SUM(O2:O36)</f>
         <v>685</v>
       </c>
-      <c r="P40">
-        <f t="shared" si="0"/>
-        <v>4320</v>
-      </c>
-      <c r="Q40">
-        <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+    </row>
+    <row r="43" spans="1:15">
       <c r="C43" s="3" t="s">
         <v>19</v>
       </c>
@@ -949,7 +926,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:15">
       <c r="A44" s="1" t="s">
         <v>22</v>
       </c>
@@ -978,7 +955,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="45" spans="1:17" s="2" customFormat="1">
+    <row r="45" spans="1:15" s="2" customFormat="1">
       <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
@@ -994,15 +971,13 @@
       <c r="F45" s="6">
         <v>9851.7000000000007</v>
       </c>
-      <c r="G45" s="5">
-        <v>14799.1</v>
-      </c>
+      <c r="G45" s="5"/>
       <c r="H45" s="5">
         <v>2309</v>
       </c>
       <c r="N45" s="5"/>
     </row>
-    <row r="46" spans="1:17" s="4" customFormat="1">
+    <row r="46" spans="1:15" s="4" customFormat="1">
       <c r="A46" s="1" t="s">
         <v>23</v>
       </c>
@@ -1011,28 +986,28 @@
         <v>1.3599999999996726</v>
       </c>
       <c r="D46" s="5">
-        <f t="shared" ref="D46:H46" si="1">D45-D44</f>
+        <f>D45-D44</f>
         <v>-1401</v>
       </c>
       <c r="E46" s="5">
-        <f t="shared" si="1"/>
+        <f>E45-E44</f>
         <v>-672.5099999999984</v>
       </c>
       <c r="F46" s="5">
-        <f t="shared" si="1"/>
+        <f>F45-F44</f>
         <v>-1632.2999999999993</v>
       </c>
       <c r="G46" s="5">
-        <f t="shared" si="1"/>
-        <v>14799.1</v>
+        <f>G45-G44</f>
+        <v>0</v>
       </c>
       <c r="H46" s="5">
-        <f t="shared" si="1"/>
+        <f>H45-H44</f>
         <v>-52</v>
       </c>
       <c r="N46" s="5"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:15">
       <c r="A48" s="1" t="s">
         <v>17</v>
       </c>
@@ -1050,12 +1025,117 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="9.625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="7">
+        <v>180311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="7">
+        <v>180425</v>
+      </c>
+      <c r="C3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="7">
+        <v>180515</v>
+      </c>
+      <c r="D4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="7">
+        <v>180426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3"/>
+      <c r="B8" s="7">
+        <v>180601</v>
+      </c>
+      <c r="C8">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <f>SUM(C12:Q12)</f>
+        <v>5120</v>
+      </c>
+      <c r="C12">
+        <f>SUM(C2:C8)</f>
+        <v>4320</v>
+      </c>
+      <c r="D12">
+        <f>SUM(D2:D8)</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="7">
+        <f>SUM(C12:M12)</f>
+        <v>5120</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
